--- a/xlsx/a69_f03UPPachuca.xlsx
+++ b/xlsx/a69_f03UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Desktop\3ER Trimestre de las 48 Fracciones Comunes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\RH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="102">
   <si>
     <t>44205</t>
   </si>
@@ -253,9 +253,6 @@
     <t>Coordinación del Posgrado en Mecatrónica (UPP)</t>
   </si>
   <si>
-    <t>Departamento de Actividades Culturales, Deportivas y Recreativas (UPP)</t>
-  </si>
-  <si>
     <t>Departamento de Servicios Escolares (UPP)</t>
   </si>
   <si>
@@ -271,10 +268,73 @@
     <t>Departamento de Recursos Humanos (UPP)</t>
   </si>
   <si>
-    <t>Departamento de Soporte Técnico (UPP)</t>
-  </si>
-  <si>
     <t>Departamento de Adquisición de Bienes y Servicios (UPP)</t>
+  </si>
+  <si>
+    <t>Coordinación del Centro de Patentamiento (UPP)</t>
+  </si>
+  <si>
+    <t>Subdirección de Comunicación Social (UPP)</t>
+  </si>
+  <si>
+    <t>Coordinación de Gestión y Calidad Educativa (UPP)</t>
+  </si>
+  <si>
+    <t>Subdirección de Recursos Financieros (UPP)</t>
+  </si>
+  <si>
+    <t>Subdirección de Calidad (UPP)</t>
+  </si>
+  <si>
+    <t>Subdirección de Planeación y Presupuesto (UPP)</t>
+  </si>
+  <si>
+    <t>Unidad de Promoción y Desarrollo Estudiantil (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Actividades Deportivas y Recreativas (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Vinculación y Extensión (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento Jurídico (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Logística (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Análisis y Desarrollo de Sistemas de Información (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Idiomas y Lenguas (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Desarrollo Académico (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Internacionalización (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Educación a Distancia (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Incubación de Empresas (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Contabilidad (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Atención y Promoción de la Salud (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Mantenimiento y Servicios Generales (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Administración del Polideportivo (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Infraestructura (UPP)</t>
   </si>
 </sst>
 </file>
@@ -329,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -352,15 +412,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -377,28 +428,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -681,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,14 +741,14 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="5" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="83.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="83.5703125" customWidth="1"/>
+    <col min="8" max="8" width="73.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -708,42 +757,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -816,19 +861,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -870,64 +915,64 @@
         <v>2020</v>
       </c>
       <c r="B8" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C8" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J8" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2020</v>
       </c>
       <c r="B9" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C9" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D9" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I9" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J9" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K9" s="2"/>
     </row>
@@ -936,31 +981,31 @@
         <v>2020</v>
       </c>
       <c r="B10" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C10" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I10" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J10" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -969,31 +1014,31 @@
         <v>2020</v>
       </c>
       <c r="B11" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C11" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D11" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I11" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J11" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -1002,31 +1047,31 @@
         <v>2020</v>
       </c>
       <c r="B12" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C12" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I12" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J12" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K12" s="2"/>
     </row>
@@ -1035,31 +1080,31 @@
         <v>2020</v>
       </c>
       <c r="B13" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C13" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I13" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J13" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -1068,31 +1113,31 @@
         <v>2020</v>
       </c>
       <c r="B14" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C14" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I14" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J14" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -1101,163 +1146,163 @@
         <v>2020</v>
       </c>
       <c r="B15" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C15" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I15" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J15" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2020</v>
       </c>
       <c r="B16" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C16" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D16" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J16" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J17" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J18" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="E19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="3">
-        <v>44114</v>
-      </c>
-      <c r="J16" s="3">
-        <v>44114</v>
-      </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B17" s="3">
-        <v>44013</v>
-      </c>
-      <c r="C17" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="3">
-        <v>44114</v>
-      </c>
-      <c r="J17" s="3">
-        <v>44114</v>
-      </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B18" s="3">
-        <v>44013</v>
-      </c>
-      <c r="C18" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="3">
-        <v>44114</v>
-      </c>
-      <c r="J18" s="3">
-        <v>44114</v>
-      </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B19" s="3">
-        <v>44013</v>
-      </c>
-      <c r="C19" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="G19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I19" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J19" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -1266,64 +1311,64 @@
         <v>2020</v>
       </c>
       <c r="B20" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C20" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D20" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="E20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I20" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J20" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2020</v>
       </c>
       <c r="B21" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C21" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I21" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J21" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K21" s="2"/>
     </row>
@@ -1332,31 +1377,31 @@
         <v>2020</v>
       </c>
       <c r="B22" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C22" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I22" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J22" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K22" s="2"/>
     </row>
@@ -1365,31 +1410,31 @@
         <v>2020</v>
       </c>
       <c r="B23" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C23" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I23" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J23" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K23" s="2"/>
     </row>
@@ -1398,31 +1443,31 @@
         <v>2020</v>
       </c>
       <c r="B24" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C24" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I24" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J24" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K24" s="2"/>
     </row>
@@ -1431,31 +1476,31 @@
         <v>2020</v>
       </c>
       <c r="B25" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C25" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I25" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J25" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K25" s="2"/>
     </row>
@@ -1464,31 +1509,31 @@
         <v>2020</v>
       </c>
       <c r="B26" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C26" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I26" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J26" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K26" s="2"/>
     </row>
@@ -1497,196 +1542,196 @@
         <v>2020</v>
       </c>
       <c r="B27" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C27" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I27" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J27" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2020</v>
       </c>
       <c r="B28" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C28" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I28" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J28" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2020</v>
       </c>
       <c r="B29" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C29" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I29" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J29" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2020</v>
       </c>
       <c r="B30" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C30" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D30" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J30" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C31" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J31" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C32" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" s="3">
-        <v>44114</v>
-      </c>
-      <c r="J30" s="3">
-        <v>44114</v>
-      </c>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B31" s="3">
-        <v>44013</v>
-      </c>
-      <c r="C31" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="3">
-        <v>44114</v>
-      </c>
-      <c r="J31" s="3">
-        <v>44114</v>
-      </c>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B32" s="3">
-        <v>44013</v>
-      </c>
-      <c r="C32" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="4" t="s">
+      <c r="E32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I32" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J32" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K32" s="2"/>
     </row>
@@ -1695,64 +1740,64 @@
         <v>2020</v>
       </c>
       <c r="B33" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C33" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I33" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J33" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2020</v>
       </c>
       <c r="B34" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C34" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I34" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J34" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K34" s="2"/>
     </row>
@@ -1761,31 +1806,31 @@
         <v>2020</v>
       </c>
       <c r="B35" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C35" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I35" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J35" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K35" s="2"/>
     </row>
@@ -1794,64 +1839,64 @@
         <v>2020</v>
       </c>
       <c r="B36" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C36" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I36" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J36" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2020</v>
       </c>
       <c r="B37" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C37" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I37" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J37" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K37" s="2"/>
     </row>
@@ -1860,31 +1905,31 @@
         <v>2020</v>
       </c>
       <c r="B38" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C38" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I38" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J38" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="K38" s="2"/>
     </row>
@@ -1893,145 +1938,791 @@
         <v>2020</v>
       </c>
       <c r="B39" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C39" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H39" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I39" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J39" s="3">
-        <v>44114</v>
-      </c>
-      <c r="K39" s="2"/>
+        <v>44206</v>
+      </c>
+      <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2020</v>
       </c>
       <c r="B40" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C40" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I40" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J40" s="3">
-        <v>44114</v>
-      </c>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>44206</v>
+      </c>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2020</v>
       </c>
       <c r="B41" s="3">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="C41" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41" s="4" t="s">
+        <v>44196</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I41" s="3">
-        <v>44114</v>
+        <v>44206</v>
       </c>
       <c r="J41" s="3">
-        <v>44114</v>
-      </c>
-      <c r="K41" s="2"/>
+        <v>44206</v>
+      </c>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C42" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J42" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B43" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C43" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I43" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J43" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C44" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J44" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C45" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I45" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J45" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B46" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C46" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J46" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C47" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J47" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B48" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C48" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J48" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C49" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I49" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J49" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B50" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C50" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I50" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J50" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C51" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I51" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J51" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B52" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C52" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I52" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J52" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B53" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C53" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I53" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J53" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C54" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I54" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J54" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B55" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I55" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J55" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B56" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C56" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I56" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J56" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B57" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C57" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I57" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J57" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B58" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C58" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I58" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J58" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B59" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C59" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J59" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B60" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C60" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I60" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J60" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K60" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1"/>
-    <hyperlink ref="G41" r:id="rId2"/>
-    <hyperlink ref="G8" r:id="rId3"/>
-    <hyperlink ref="G9" r:id="rId4"/>
-    <hyperlink ref="G11" r:id="rId5"/>
-    <hyperlink ref="G12" r:id="rId6"/>
-    <hyperlink ref="G13" r:id="rId7"/>
-    <hyperlink ref="G14" r:id="rId8"/>
-    <hyperlink ref="G15" r:id="rId9"/>
-    <hyperlink ref="G16" r:id="rId10"/>
-    <hyperlink ref="G17" r:id="rId11"/>
-    <hyperlink ref="G18" r:id="rId12"/>
-    <hyperlink ref="G19" r:id="rId13"/>
+    <hyperlink ref="G8" r:id="rId1"/>
+    <hyperlink ref="G35" r:id="rId2"/>
+    <hyperlink ref="G33" r:id="rId3"/>
+    <hyperlink ref="G34" r:id="rId4"/>
+    <hyperlink ref="G32" r:id="rId5"/>
+    <hyperlink ref="G28" r:id="rId6"/>
+    <hyperlink ref="G27" r:id="rId7"/>
+    <hyperlink ref="G26" r:id="rId8"/>
+    <hyperlink ref="G25" r:id="rId9"/>
+    <hyperlink ref="G24" r:id="rId10"/>
+    <hyperlink ref="G23" r:id="rId11"/>
+    <hyperlink ref="G22" r:id="rId12"/>
+    <hyperlink ref="G21" r:id="rId13"/>
     <hyperlink ref="G20" r:id="rId14"/>
-    <hyperlink ref="G21" r:id="rId15"/>
-    <hyperlink ref="G22" r:id="rId16"/>
-    <hyperlink ref="G23" r:id="rId17"/>
-    <hyperlink ref="G24" r:id="rId18"/>
-    <hyperlink ref="G25" r:id="rId19"/>
-    <hyperlink ref="G26" r:id="rId20"/>
-    <hyperlink ref="G27" r:id="rId21"/>
-    <hyperlink ref="G28" r:id="rId22"/>
-    <hyperlink ref="G29" r:id="rId23"/>
-    <hyperlink ref="G30" r:id="rId24"/>
-    <hyperlink ref="G31" r:id="rId25"/>
-    <hyperlink ref="G32" r:id="rId26"/>
-    <hyperlink ref="G33" r:id="rId27"/>
-    <hyperlink ref="G34" r:id="rId28"/>
-    <hyperlink ref="G35" r:id="rId29"/>
-    <hyperlink ref="G36" r:id="rId30"/>
-    <hyperlink ref="G37" r:id="rId31"/>
-    <hyperlink ref="G38" r:id="rId32"/>
-    <hyperlink ref="G39" r:id="rId33"/>
-    <hyperlink ref="G40" r:id="rId34"/>
+    <hyperlink ref="G16" r:id="rId15"/>
+    <hyperlink ref="G15" r:id="rId16"/>
+    <hyperlink ref="G18" r:id="rId17"/>
+    <hyperlink ref="G19" r:id="rId18"/>
+    <hyperlink ref="G13" r:id="rId19"/>
+    <hyperlink ref="G12" r:id="rId20"/>
+    <hyperlink ref="G14" r:id="rId21"/>
+    <hyperlink ref="G11" r:id="rId22"/>
+    <hyperlink ref="G9" r:id="rId23"/>
+    <hyperlink ref="G10" r:id="rId24"/>
+    <hyperlink ref="G17" r:id="rId25"/>
+    <hyperlink ref="G39" r:id="rId26"/>
+    <hyperlink ref="G40" r:id="rId27"/>
+    <hyperlink ref="G41" r:id="rId28"/>
+    <hyperlink ref="G42" r:id="rId29"/>
+    <hyperlink ref="G43" r:id="rId30"/>
+    <hyperlink ref="G44" r:id="rId31"/>
+    <hyperlink ref="G45" r:id="rId32"/>
+    <hyperlink ref="G46" r:id="rId33"/>
+    <hyperlink ref="G47" r:id="rId34"/>
+    <hyperlink ref="G48" r:id="rId35"/>
+    <hyperlink ref="G49" r:id="rId36"/>
+    <hyperlink ref="G50" r:id="rId37"/>
+    <hyperlink ref="G51" r:id="rId38"/>
+    <hyperlink ref="G52" r:id="rId39"/>
+    <hyperlink ref="G29" r:id="rId40"/>
+    <hyperlink ref="G30" r:id="rId41"/>
+    <hyperlink ref="G31" r:id="rId42"/>
+    <hyperlink ref="G36" r:id="rId43"/>
+    <hyperlink ref="G37" r:id="rId44"/>
+    <hyperlink ref="G38" r:id="rId45"/>
+    <hyperlink ref="G53" r:id="rId46"/>
+    <hyperlink ref="G54" r:id="rId47"/>
+    <hyperlink ref="G55" r:id="rId48"/>
+    <hyperlink ref="G56" r:id="rId49"/>
+    <hyperlink ref="G57" r:id="rId50"/>
+    <hyperlink ref="G58" r:id="rId51"/>
+    <hyperlink ref="G59" r:id="rId52"/>
+    <hyperlink ref="G60" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f03UPPachuca.xlsx
+++ b/xlsx/a69_f03UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -371,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -391,9 +391,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -689,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,9 +695,9 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
-    <col min="5" max="5" width="111.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" customWidth="1"/>
+    <col min="5" max="5" width="131.5703125" customWidth="1"/>
+    <col min="6" max="6" width="96.5703125" customWidth="1"/>
     <col min="7" max="7" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
@@ -713,38 +710,38 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -811,18 +808,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -861,10 +858,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>34</v>
@@ -879,10 +876,10 @@
         <v>40</v>
       </c>
       <c r="H8" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I8" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J8" s="4"/>
     </row>
@@ -891,15 +888,15 @@
         <v>2021</v>
       </c>
       <c r="B9" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C9" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>89</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -909,10 +906,10 @@
         <v>40</v>
       </c>
       <c r="H9" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I9" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -921,15 +918,15 @@
         <v>2021</v>
       </c>
       <c r="B10" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C10" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -939,10 +936,10 @@
         <v>40</v>
       </c>
       <c r="H10" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I10" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J10" s="4"/>
     </row>
@@ -951,15 +948,15 @@
         <v>2021</v>
       </c>
       <c r="B11" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C11" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -969,10 +966,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I11" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J11" s="4"/>
     </row>
@@ -981,15 +978,15 @@
         <v>2021</v>
       </c>
       <c r="B12" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C12" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -999,10 +996,10 @@
         <v>40</v>
       </c>
       <c r="H12" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I12" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J12" s="4"/>
     </row>
@@ -1011,15 +1008,15 @@
         <v>2021</v>
       </c>
       <c r="B13" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C13" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -1029,10 +1026,10 @@
         <v>40</v>
       </c>
       <c r="H13" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I13" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J13" s="4"/>
     </row>
@@ -1041,15 +1038,15 @@
         <v>2021</v>
       </c>
       <c r="B14" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C14" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -1059,10 +1056,10 @@
         <v>40</v>
       </c>
       <c r="H14" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I14" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J14" s="4"/>
     </row>
@@ -1071,15 +1068,15 @@
         <v>2021</v>
       </c>
       <c r="B15" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C15" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -1089,10 +1086,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I15" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J15" s="4"/>
     </row>
@@ -1101,15 +1098,15 @@
         <v>2021</v>
       </c>
       <c r="B16" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C16" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -1119,10 +1116,10 @@
         <v>40</v>
       </c>
       <c r="H16" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I16" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J16" s="4"/>
     </row>
@@ -1131,15 +1128,15 @@
         <v>2021</v>
       </c>
       <c r="B17" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C17" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -1149,10 +1146,10 @@
         <v>40</v>
       </c>
       <c r="H17" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I17" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J17" s="4"/>
     </row>
@@ -1161,15 +1158,15 @@
         <v>2021</v>
       </c>
       <c r="B18" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C18" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -1179,10 +1176,10 @@
         <v>40</v>
       </c>
       <c r="H18" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I18" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -1191,15 +1188,15 @@
         <v>2021</v>
       </c>
       <c r="B19" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C19" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -1209,10 +1206,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I19" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J19" s="4"/>
     </row>
@@ -1221,15 +1218,15 @@
         <v>2021</v>
       </c>
       <c r="B20" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C20" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -1239,10 +1236,10 @@
         <v>40</v>
       </c>
       <c r="H20" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I20" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J20" s="4"/>
     </row>
@@ -1251,15 +1248,15 @@
         <v>2021</v>
       </c>
       <c r="B21" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C21" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -1269,10 +1266,10 @@
         <v>40</v>
       </c>
       <c r="H21" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I21" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J21" s="4"/>
     </row>
@@ -1281,15 +1278,15 @@
         <v>2021</v>
       </c>
       <c r="B22" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C22" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -1299,10 +1296,10 @@
         <v>40</v>
       </c>
       <c r="H22" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I22" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J22" s="4"/>
     </row>
@@ -1311,15 +1308,15 @@
         <v>2021</v>
       </c>
       <c r="B23" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C23" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -1329,10 +1326,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I23" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J23" s="4"/>
     </row>
@@ -1341,15 +1338,15 @@
         <v>2021</v>
       </c>
       <c r="B24" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C24" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -1359,10 +1356,10 @@
         <v>40</v>
       </c>
       <c r="H24" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I24" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J24" s="4"/>
     </row>
@@ -1371,15 +1368,15 @@
         <v>2021</v>
       </c>
       <c r="B25" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C25" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -1389,10 +1386,10 @@
         <v>40</v>
       </c>
       <c r="H25" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I25" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J25" s="4"/>
     </row>
@@ -1401,15 +1398,15 @@
         <v>2021</v>
       </c>
       <c r="B26" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C26" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -1419,10 +1416,10 @@
         <v>40</v>
       </c>
       <c r="H26" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I26" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -1431,15 +1428,15 @@
         <v>2021</v>
       </c>
       <c r="B27" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C27" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F27" s="6" t="s">
@@ -1449,10 +1446,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I27" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J27" s="4"/>
     </row>
@@ -1461,15 +1458,15 @@
         <v>2021</v>
       </c>
       <c r="B28" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C28" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F28" s="6" t="s">
@@ -1479,10 +1476,10 @@
         <v>40</v>
       </c>
       <c r="H28" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I28" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J28" s="4"/>
     </row>
@@ -1491,15 +1488,15 @@
         <v>2021</v>
       </c>
       <c r="B29" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C29" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -1509,10 +1506,10 @@
         <v>40</v>
       </c>
       <c r="H29" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I29" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J29" s="4"/>
     </row>
@@ -1521,15 +1518,15 @@
         <v>2021</v>
       </c>
       <c r="B30" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C30" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F30" s="6" t="s">
@@ -1539,10 +1536,10 @@
         <v>40</v>
       </c>
       <c r="H30" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I30" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J30" s="4"/>
     </row>
@@ -1551,15 +1548,15 @@
         <v>2021</v>
       </c>
       <c r="B31" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C31" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F31" s="6" t="s">
@@ -1569,10 +1566,10 @@
         <v>40</v>
       </c>
       <c r="H31" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I31" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J31" s="4"/>
     </row>
@@ -1581,15 +1578,15 @@
         <v>2021</v>
       </c>
       <c r="B32" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C32" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F32" s="6" t="s">
@@ -1599,10 +1596,10 @@
         <v>40</v>
       </c>
       <c r="H32" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I32" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J32" s="4"/>
     </row>
@@ -1611,15 +1608,15 @@
         <v>2021</v>
       </c>
       <c r="B33" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C33" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F33" s="6" t="s">
@@ -1629,10 +1626,10 @@
         <v>40</v>
       </c>
       <c r="H33" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I33" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J33" s="4"/>
     </row>
@@ -1641,15 +1638,15 @@
         <v>2021</v>
       </c>
       <c r="B34" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C34" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -1659,10 +1656,10 @@
         <v>40</v>
       </c>
       <c r="H34" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I34" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J34" s="4"/>
     </row>
@@ -1671,15 +1668,15 @@
         <v>2021</v>
       </c>
       <c r="B35" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C35" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F35" s="6" t="s">
@@ -1689,10 +1686,10 @@
         <v>40</v>
       </c>
       <c r="H35" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I35" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J35" s="4"/>
     </row>
@@ -1701,15 +1698,15 @@
         <v>2021</v>
       </c>
       <c r="B36" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C36" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -1719,10 +1716,10 @@
         <v>40</v>
       </c>
       <c r="H36" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I36" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J36" s="4"/>
     </row>
@@ -1731,15 +1728,15 @@
         <v>2021</v>
       </c>
       <c r="B37" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C37" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F37" s="6" t="s">
@@ -1749,10 +1746,10 @@
         <v>40</v>
       </c>
       <c r="H37" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I37" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J37" s="4"/>
     </row>
@@ -1761,15 +1758,15 @@
         <v>2021</v>
       </c>
       <c r="B38" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C38" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F38" s="6" t="s">
@@ -1779,10 +1776,10 @@
         <v>40</v>
       </c>
       <c r="H38" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I38" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J38" s="4"/>
     </row>
@@ -1791,15 +1788,15 @@
         <v>2021</v>
       </c>
       <c r="B39" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C39" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F39" s="6" t="s">
@@ -1809,10 +1806,10 @@
         <v>40</v>
       </c>
       <c r="H39" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I39" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J39" s="4"/>
     </row>
@@ -1821,15 +1818,15 @@
         <v>2021</v>
       </c>
       <c r="B40" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C40" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F40" s="6" t="s">
@@ -1839,10 +1836,10 @@
         <v>40</v>
       </c>
       <c r="H40" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I40" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J40" s="4"/>
     </row>
@@ -1851,15 +1848,15 @@
         <v>2021</v>
       </c>
       <c r="B41" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C41" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F41" s="6" t="s">
@@ -1869,10 +1866,10 @@
         <v>40</v>
       </c>
       <c r="H41" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I41" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J41" s="4"/>
     </row>
@@ -1881,15 +1878,15 @@
         <v>2021</v>
       </c>
       <c r="B42" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C42" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F42" s="6" t="s">
@@ -1899,10 +1896,10 @@
         <v>40</v>
       </c>
       <c r="H42" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I42" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J42" s="4"/>
     </row>
@@ -1911,15 +1908,15 @@
         <v>2021</v>
       </c>
       <c r="B43" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C43" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F43" s="6" t="s">
@@ -1929,10 +1926,10 @@
         <v>40</v>
       </c>
       <c r="H43" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I43" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J43" s="4"/>
     </row>
@@ -1941,15 +1938,15 @@
         <v>2021</v>
       </c>
       <c r="B44" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C44" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F44" s="6" t="s">
@@ -1959,10 +1956,10 @@
         <v>40</v>
       </c>
       <c r="H44" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I44" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J44" s="4"/>
     </row>
@@ -1971,15 +1968,15 @@
         <v>2021</v>
       </c>
       <c r="B45" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C45" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F45" s="6" t="s">
@@ -1989,10 +1986,10 @@
         <v>40</v>
       </c>
       <c r="H45" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I45" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J45" s="4"/>
     </row>
@@ -2001,15 +1998,15 @@
         <v>2021</v>
       </c>
       <c r="B46" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C46" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F46" s="6" t="s">
@@ -2019,10 +2016,10 @@
         <v>40</v>
       </c>
       <c r="H46" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I46" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J46" s="4"/>
     </row>
@@ -2031,15 +2028,15 @@
         <v>2021</v>
       </c>
       <c r="B47" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C47" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F47" s="6" t="s">
@@ -2049,10 +2046,10 @@
         <v>40</v>
       </c>
       <c r="H47" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I47" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J47" s="4"/>
     </row>
@@ -2061,15 +2058,15 @@
         <v>2021</v>
       </c>
       <c r="B48" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C48" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F48" s="6" t="s">
@@ -2079,10 +2076,10 @@
         <v>40</v>
       </c>
       <c r="H48" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I48" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J48" s="4"/>
     </row>
@@ -2091,15 +2088,15 @@
         <v>2021</v>
       </c>
       <c r="B49" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C49" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F49" s="6" t="s">
@@ -2109,10 +2106,10 @@
         <v>40</v>
       </c>
       <c r="H49" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I49" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J49" s="4"/>
     </row>
@@ -2121,15 +2118,15 @@
         <v>2021</v>
       </c>
       <c r="B50" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C50" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F50" s="6" t="s">
@@ -2139,10 +2136,10 @@
         <v>40</v>
       </c>
       <c r="H50" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I50" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J50" s="4"/>
     </row>
@@ -2151,15 +2148,15 @@
         <v>2021</v>
       </c>
       <c r="B51" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C51" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F51" s="6" t="s">
@@ -2169,10 +2166,10 @@
         <v>40</v>
       </c>
       <c r="H51" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I51" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J51" s="4"/>
     </row>
@@ -2181,15 +2178,15 @@
         <v>2021</v>
       </c>
       <c r="B52" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C52" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F52" s="6" t="s">
@@ -2199,10 +2196,10 @@
         <v>40</v>
       </c>
       <c r="H52" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I52" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J52" s="4"/>
     </row>
@@ -2211,15 +2208,15 @@
         <v>2021</v>
       </c>
       <c r="B53" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C53" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F53" s="6" t="s">
@@ -2229,10 +2226,10 @@
         <v>40</v>
       </c>
       <c r="H53" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I53" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J53" s="4"/>
     </row>
@@ -2241,15 +2238,15 @@
         <v>2021</v>
       </c>
       <c r="B54" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C54" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F54" s="6" t="s">
@@ -2259,10 +2256,10 @@
         <v>40</v>
       </c>
       <c r="H54" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I54" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J54" s="4"/>
     </row>
@@ -2271,15 +2268,15 @@
         <v>2021</v>
       </c>
       <c r="B55" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C55" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F55" s="6" t="s">
@@ -2289,10 +2286,10 @@
         <v>40</v>
       </c>
       <c r="H55" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I55" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J55" s="4"/>
     </row>
@@ -2301,15 +2298,15 @@
         <v>2021</v>
       </c>
       <c r="B56" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C56" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F56" s="6" t="s">
@@ -2319,10 +2316,10 @@
         <v>40</v>
       </c>
       <c r="H56" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I56" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J56" s="4"/>
     </row>
@@ -2331,15 +2328,15 @@
         <v>2021</v>
       </c>
       <c r="B57" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C57" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F57" s="6" t="s">
@@ -2349,10 +2346,10 @@
         <v>40</v>
       </c>
       <c r="H57" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I57" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J57" s="4"/>
     </row>
@@ -2361,15 +2358,15 @@
         <v>2021</v>
       </c>
       <c r="B58" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C58" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F58" s="6" t="s">
@@ -2379,10 +2376,10 @@
         <v>40</v>
       </c>
       <c r="H58" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I58" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J58" s="4"/>
     </row>
@@ -2391,15 +2388,15 @@
         <v>2021</v>
       </c>
       <c r="B59" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C59" s="3">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="5" t="s">
         <v>87</v>
       </c>
       <c r="F59" s="6" t="s">
@@ -2409,10 +2406,10 @@
         <v>40</v>
       </c>
       <c r="H59" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="I59" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J59" s="4"/>
     </row>

--- a/xlsx/a69_f03UPPachuca.xlsx
+++ b/xlsx/a69_f03UPPachuca.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -464,7 +464,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,7 +499,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,9 +695,9 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" customWidth="1"/>
-    <col min="5" max="5" width="131.5703125" customWidth="1"/>
-    <col min="6" max="6" width="96.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="5" max="5" width="123.28515625" customWidth="1"/>
+    <col min="6" max="6" width="83.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
@@ -858,10 +858,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C8" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>34</v>
@@ -876,10 +876,10 @@
         <v>40</v>
       </c>
       <c r="H8" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I8" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J8" s="4"/>
     </row>
@@ -888,10 +888,10 @@
         <v>2021</v>
       </c>
       <c r="B9" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C9" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>35</v>
@@ -906,10 +906,10 @@
         <v>40</v>
       </c>
       <c r="H9" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I9" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -918,10 +918,10 @@
         <v>2021</v>
       </c>
       <c r="B10" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C10" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>36</v>
@@ -936,10 +936,10 @@
         <v>40</v>
       </c>
       <c r="H10" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I10" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J10" s="4"/>
     </row>
@@ -948,10 +948,10 @@
         <v>2021</v>
       </c>
       <c r="B11" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C11" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>37</v>
@@ -966,22 +966,22 @@
         <v>40</v>
       </c>
       <c r="H11" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I11" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2021</v>
       </c>
       <c r="B12" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C12" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>38</v>
@@ -996,10 +996,10 @@
         <v>40</v>
       </c>
       <c r="H12" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I12" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J12" s="4"/>
     </row>
@@ -1008,10 +1008,10 @@
         <v>2021</v>
       </c>
       <c r="B13" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C13" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>39</v>
@@ -1026,10 +1026,10 @@
         <v>40</v>
       </c>
       <c r="H13" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I13" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J13" s="4"/>
     </row>
@@ -1038,10 +1038,10 @@
         <v>2021</v>
       </c>
       <c r="B14" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C14" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>40</v>
@@ -1056,10 +1056,10 @@
         <v>40</v>
       </c>
       <c r="H14" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I14" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J14" s="4"/>
     </row>
@@ -1068,10 +1068,10 @@
         <v>2021</v>
       </c>
       <c r="B15" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C15" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>41</v>
@@ -1086,22 +1086,22 @@
         <v>40</v>
       </c>
       <c r="H15" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I15" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2021</v>
       </c>
       <c r="B16" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C16" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>42</v>
@@ -1116,10 +1116,10 @@
         <v>40</v>
       </c>
       <c r="H16" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I16" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J16" s="4"/>
     </row>
@@ -1128,10 +1128,10 @@
         <v>2021</v>
       </c>
       <c r="B17" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C17" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>43</v>
@@ -1146,10 +1146,10 @@
         <v>40</v>
       </c>
       <c r="H17" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I17" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J17" s="4"/>
     </row>
@@ -1158,10 +1158,10 @@
         <v>2021</v>
       </c>
       <c r="B18" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C18" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>44</v>
@@ -1176,10 +1176,10 @@
         <v>40</v>
       </c>
       <c r="H18" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I18" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -1188,10 +1188,10 @@
         <v>2021</v>
       </c>
       <c r="B19" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C19" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>45</v>
@@ -1206,10 +1206,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I19" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J19" s="4"/>
     </row>
@@ -1218,10 +1218,10 @@
         <v>2021</v>
       </c>
       <c r="B20" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C20" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>46</v>
@@ -1236,10 +1236,10 @@
         <v>40</v>
       </c>
       <c r="H20" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I20" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J20" s="4"/>
     </row>
@@ -1248,10 +1248,10 @@
         <v>2021</v>
       </c>
       <c r="B21" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C21" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>47</v>
@@ -1266,22 +1266,22 @@
         <v>40</v>
       </c>
       <c r="H21" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I21" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2021</v>
       </c>
       <c r="B22" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C22" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>48</v>
@@ -1296,10 +1296,10 @@
         <v>40</v>
       </c>
       <c r="H22" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I22" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J22" s="4"/>
     </row>
@@ -1308,10 +1308,10 @@
         <v>2021</v>
       </c>
       <c r="B23" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C23" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>49</v>
@@ -1326,22 +1326,22 @@
         <v>40</v>
       </c>
       <c r="H23" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I23" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2021</v>
       </c>
       <c r="B24" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C24" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>50</v>
@@ -1356,22 +1356,22 @@
         <v>40</v>
       </c>
       <c r="H24" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I24" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2021</v>
       </c>
       <c r="B25" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C25" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>51</v>
@@ -1386,10 +1386,10 @@
         <v>40</v>
       </c>
       <c r="H25" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I25" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J25" s="4"/>
     </row>
@@ -1398,10 +1398,10 @@
         <v>2021</v>
       </c>
       <c r="B26" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C26" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>52</v>
@@ -1416,22 +1416,22 @@
         <v>40</v>
       </c>
       <c r="H26" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I26" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2021</v>
       </c>
       <c r="B27" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C27" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>53</v>
@@ -1446,10 +1446,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I27" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J27" s="4"/>
     </row>
@@ -1458,10 +1458,10 @@
         <v>2021</v>
       </c>
       <c r="B28" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C28" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>54</v>
@@ -1476,10 +1476,10 @@
         <v>40</v>
       </c>
       <c r="H28" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I28" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J28" s="4"/>
     </row>
@@ -1488,10 +1488,10 @@
         <v>2021</v>
       </c>
       <c r="B29" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C29" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>55</v>
@@ -1506,10 +1506,10 @@
         <v>40</v>
       </c>
       <c r="H29" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I29" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J29" s="4"/>
     </row>
@@ -1518,10 +1518,10 @@
         <v>2021</v>
       </c>
       <c r="B30" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C30" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>56</v>
@@ -1536,10 +1536,10 @@
         <v>40</v>
       </c>
       <c r="H30" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I30" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J30" s="4"/>
     </row>
@@ -1548,10 +1548,10 @@
         <v>2021</v>
       </c>
       <c r="B31" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C31" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>57</v>
@@ -1566,10 +1566,10 @@
         <v>40</v>
       </c>
       <c r="H31" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I31" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J31" s="4"/>
     </row>
@@ -1578,10 +1578,10 @@
         <v>2021</v>
       </c>
       <c r="B32" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C32" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>58</v>
@@ -1596,10 +1596,10 @@
         <v>40</v>
       </c>
       <c r="H32" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I32" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J32" s="4"/>
     </row>
@@ -1608,10 +1608,10 @@
         <v>2021</v>
       </c>
       <c r="B33" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C33" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>59</v>
@@ -1626,10 +1626,10 @@
         <v>40</v>
       </c>
       <c r="H33" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I33" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J33" s="4"/>
     </row>
@@ -1638,10 +1638,10 @@
         <v>2021</v>
       </c>
       <c r="B34" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C34" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>60</v>
@@ -1656,10 +1656,10 @@
         <v>40</v>
       </c>
       <c r="H34" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I34" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J34" s="4"/>
     </row>
@@ -1668,10 +1668,10 @@
         <v>2021</v>
       </c>
       <c r="B35" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C35" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>61</v>
@@ -1686,10 +1686,10 @@
         <v>40</v>
       </c>
       <c r="H35" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I35" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J35" s="4"/>
     </row>
@@ -1698,10 +1698,10 @@
         <v>2021</v>
       </c>
       <c r="B36" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C36" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>62</v>
@@ -1716,10 +1716,10 @@
         <v>40</v>
       </c>
       <c r="H36" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I36" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J36" s="4"/>
     </row>
@@ -1728,10 +1728,10 @@
         <v>2021</v>
       </c>
       <c r="B37" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C37" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>63</v>
@@ -1746,10 +1746,10 @@
         <v>40</v>
       </c>
       <c r="H37" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I37" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J37" s="4"/>
     </row>
@@ -1758,10 +1758,10 @@
         <v>2021</v>
       </c>
       <c r="B38" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C38" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>64</v>
@@ -1776,10 +1776,10 @@
         <v>40</v>
       </c>
       <c r="H38" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I38" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J38" s="4"/>
     </row>
@@ -1788,10 +1788,10 @@
         <v>2021</v>
       </c>
       <c r="B39" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C39" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>65</v>
@@ -1806,10 +1806,10 @@
         <v>40</v>
       </c>
       <c r="H39" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I39" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J39" s="4"/>
     </row>
@@ -1818,10 +1818,10 @@
         <v>2021</v>
       </c>
       <c r="B40" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C40" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>66</v>
@@ -1836,22 +1836,22 @@
         <v>40</v>
       </c>
       <c r="H40" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I40" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2021</v>
       </c>
       <c r="B41" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C41" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>67</v>
@@ -1866,22 +1866,22 @@
         <v>40</v>
       </c>
       <c r="H41" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I41" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2021</v>
       </c>
       <c r="B42" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C42" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>68</v>
@@ -1896,10 +1896,10 @@
         <v>40</v>
       </c>
       <c r="H42" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I42" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J42" s="4"/>
     </row>
@@ -1908,10 +1908,10 @@
         <v>2021</v>
       </c>
       <c r="B43" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C43" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>69</v>
@@ -1926,10 +1926,10 @@
         <v>40</v>
       </c>
       <c r="H43" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I43" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J43" s="4"/>
     </row>
@@ -1938,10 +1938,10 @@
         <v>2021</v>
       </c>
       <c r="B44" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C44" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>70</v>
@@ -1956,10 +1956,10 @@
         <v>40</v>
       </c>
       <c r="H44" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I44" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J44" s="4"/>
     </row>
@@ -1968,10 +1968,10 @@
         <v>2021</v>
       </c>
       <c r="B45" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C45" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>71</v>
@@ -1986,10 +1986,10 @@
         <v>40</v>
       </c>
       <c r="H45" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I45" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J45" s="4"/>
     </row>
@@ -1998,10 +1998,10 @@
         <v>2021</v>
       </c>
       <c r="B46" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C46" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>72</v>
@@ -2016,10 +2016,10 @@
         <v>40</v>
       </c>
       <c r="H46" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I46" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J46" s="4"/>
     </row>
@@ -2028,10 +2028,10 @@
         <v>2021</v>
       </c>
       <c r="B47" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C47" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>73</v>
@@ -2046,10 +2046,10 @@
         <v>40</v>
       </c>
       <c r="H47" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I47" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J47" s="4"/>
     </row>
@@ -2058,10 +2058,10 @@
         <v>2021</v>
       </c>
       <c r="B48" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C48" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>74</v>
@@ -2076,10 +2076,10 @@
         <v>40</v>
       </c>
       <c r="H48" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I48" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J48" s="4"/>
     </row>
@@ -2088,10 +2088,10 @@
         <v>2021</v>
       </c>
       <c r="B49" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C49" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>75</v>
@@ -2106,10 +2106,10 @@
         <v>40</v>
       </c>
       <c r="H49" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I49" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J49" s="4"/>
     </row>
@@ -2118,10 +2118,10 @@
         <v>2021</v>
       </c>
       <c r="B50" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C50" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>76</v>
@@ -2136,10 +2136,10 @@
         <v>40</v>
       </c>
       <c r="H50" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I50" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J50" s="4"/>
     </row>
@@ -2148,10 +2148,10 @@
         <v>2021</v>
       </c>
       <c r="B51" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C51" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>77</v>
@@ -2166,10 +2166,10 @@
         <v>40</v>
       </c>
       <c r="H51" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I51" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J51" s="4"/>
     </row>
@@ -2178,10 +2178,10 @@
         <v>2021</v>
       </c>
       <c r="B52" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C52" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>78</v>
@@ -2196,22 +2196,22 @@
         <v>40</v>
       </c>
       <c r="H52" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I52" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2021</v>
       </c>
       <c r="B53" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C53" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>79</v>
@@ -2226,10 +2226,10 @@
         <v>40</v>
       </c>
       <c r="H53" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I53" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J53" s="4"/>
     </row>
@@ -2238,10 +2238,10 @@
         <v>2021</v>
       </c>
       <c r="B54" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C54" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>80</v>
@@ -2256,10 +2256,10 @@
         <v>40</v>
       </c>
       <c r="H54" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I54" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J54" s="4"/>
     </row>
@@ -2268,10 +2268,10 @@
         <v>2021</v>
       </c>
       <c r="B55" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C55" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>81</v>
@@ -2286,10 +2286,10 @@
         <v>40</v>
       </c>
       <c r="H55" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I55" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J55" s="4"/>
     </row>
@@ -2298,10 +2298,10 @@
         <v>2021</v>
       </c>
       <c r="B56" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C56" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>82</v>
@@ -2316,22 +2316,22 @@
         <v>40</v>
       </c>
       <c r="H56" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I56" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2021</v>
       </c>
       <c r="B57" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C57" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>83</v>
@@ -2346,10 +2346,10 @@
         <v>40</v>
       </c>
       <c r="H57" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I57" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J57" s="4"/>
     </row>
@@ -2358,10 +2358,10 @@
         <v>2021</v>
       </c>
       <c r="B58" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C58" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>84</v>
@@ -2376,10 +2376,10 @@
         <v>40</v>
       </c>
       <c r="H58" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I58" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J58" s="4"/>
     </row>
@@ -2388,10 +2388,10 @@
         <v>2021</v>
       </c>
       <c r="B59" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C59" s="3">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>85</v>
@@ -2406,10 +2406,10 @@
         <v>40</v>
       </c>
       <c r="H59" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="I59" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J59" s="4"/>
     </row>

--- a/xlsx/a69_f03UPPachuca.xlsx
+++ b/xlsx/a69_f03UPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>44205</t>
   </si>
@@ -129,9 +124,6 @@
     <t>Artículo 4, Fracción  I, II,III, IV, V, VI, VII, VIII, IX, X, XI, XII, XIII, XIV, XV, XVI, XVII, XVIII, Artículo 26, Fracción I, II,III, IV, V, VI, VII, VIII, IX, X, XI, XII, XIII, XIV, XV, XVI, XVII, XVIII, XIX, XX, XI, XII, XIII, XIV, XV del Decreto de creación de la Universidad Politécnica de Pachuca</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/0B1hmxg8QtxfYdmZvd0Y3MXprVWM/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Abogado General (UPP)</t>
   </si>
   <si>
@@ -150,145 +142,154 @@
     <t>Dirección de la División de Estudios Profesionales (UPP)</t>
   </si>
   <si>
+    <t>Dirección de Vinculación y Extensión (UPP)</t>
+  </si>
+  <si>
+    <t>Dirección de Logística (UPP)</t>
+  </si>
+  <si>
+    <t>Dirección de Comunicación Social e Imagen Institucional (UPP)</t>
+  </si>
+  <si>
+    <t>Dirección de Investigación, Innovación y Posgrado (UPP)</t>
+  </si>
+  <si>
+    <t>Dirección de Planeación (UPP)</t>
+  </si>
+  <si>
+    <t>Dirección del Programa de Ingeniería en Software (UPP)</t>
+  </si>
+  <si>
+    <t>Dirección del Programa de Ingeniería Financiera (UPP)</t>
+  </si>
+  <si>
+    <t>Dirección del Programa de Ingeniería Mecatrónica (UPP)</t>
+  </si>
+  <si>
+    <t>Dirección del Programa de Ingeniería en Biotecnología (UPP)</t>
+  </si>
+  <si>
+    <t>Dirección del Programa de Ingeniería en Telemática (UPP)</t>
+  </si>
+  <si>
+    <t>Dirección del Programa de Ingeniería Mecánica Automotriz (UPP)</t>
+  </si>
+  <si>
+    <t>Dirección del Programa de Licenciatura en Terapia Física (UPP)</t>
+  </si>
+  <si>
+    <t>Dirección del Programa de Ingeniería en Biomédica (UPP)</t>
+  </si>
+  <si>
+    <t>Dirección del Programa de Licenciatura en Médico Cirujano (UPP)</t>
+  </si>
+  <si>
+    <t>Coordinación del Centro de Patentamiento (UPP)</t>
+  </si>
+  <si>
+    <t>Subdirección de Comunicación Social (UPP)</t>
+  </si>
+  <si>
+    <t>Coordinación de Gestión y Calidad Educativa (UPP)</t>
+  </si>
+  <si>
+    <t>Coordinación del Posgrado en Didáctica y Ciencias (UPP)</t>
+  </si>
+  <si>
+    <t>Coordinación del Posgrado en Biotecnología (UPP)</t>
+  </si>
+  <si>
+    <t>Coordinación del Posgrado en Tecnologías de la Información y Comunicaciones (UPP)</t>
+  </si>
+  <si>
+    <t>Coordinación del Posgrado en Mecatrónica (UPP)</t>
+  </si>
+  <si>
+    <t>Subdirección de Recursos Financieros (UPP)</t>
+  </si>
+  <si>
+    <t>Subdirección de Calidad (UPP)</t>
+  </si>
+  <si>
+    <t>Subdirección de Planeación y Presupuesto (UPP)</t>
+  </si>
+  <si>
+    <t>Unidad de Promoción y Desarrollo Estudiantil (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Vinculación y Extensión (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento Jurídico (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Logística (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Análisis y Desarrollo de Sistemas de Información (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Idiomas y Lenguas (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Desarrollo Académico (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Servicios Bibliotecarios (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Actividades Deportivas y Recreativas (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Internacionalización (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Educación a Distancia (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Incubación de Empresas (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Contabilidad (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Recursos Humanos (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Atención y Promoción de la Salud (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Mantenimiento y Servicios Generales (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Administración del Polideportivo (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Adquisición de Bienes y Servicios (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Infraestructura (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Tecnologías de Información y Comunicaciones (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Servicios Escolares (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Evaluación y Estadísticas (UPP)</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f03/Decreto-de-creaci%C3%B3n-VIGENTE-04_02_2008.pdf</t>
+  </si>
+  <si>
     <t>Órgano Interno de Control (UPP)</t>
   </si>
   <si>
-    <t>Dirección de Vinculación y Extensión (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección de Logística (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección de Comunicación Social e Imagen Institucional (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección de Investigación, Innovación y Posgrado (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección de Planeación (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección del Programa de Ingeniería en Software (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección del Programa de Ingeniería Financiera (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección del Programa de Ingeniería Mecatrónica (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección del Programa de Ingeniería en Biotecnología (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección del Programa de Ingeniería en Telemática (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección del Programa de Ingeniería Mecánica Automotriz (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección del Programa de Licenciatura en Terapia Física (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección del Programa de Ingeniería en Biomédica (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección del Programa de Licenciatura en Médico Cirujano (UPP)</t>
-  </si>
-  <si>
-    <t>Coordinación del Centro de Patentamiento (UPP)</t>
-  </si>
-  <si>
-    <t>Subdirección de Comunicación Social (UPP)</t>
-  </si>
-  <si>
-    <t>Coordinación de Gestión y Calidad Educativa (UPP)</t>
-  </si>
-  <si>
-    <t>Coordinación del Posgrado en Didáctica y Ciencias (UPP)</t>
-  </si>
-  <si>
-    <t>Coordinación del Posgrado en Biotecnología (UPP)</t>
-  </si>
-  <si>
-    <t>Coordinación del Posgrado en Tecnologías de la Información y Comunicaciones (UPP)</t>
-  </si>
-  <si>
-    <t>Coordinación del Posgrado en Mecatrónica (UPP)</t>
-  </si>
-  <si>
-    <t>Subdirección de Recursos Financieros (UPP)</t>
-  </si>
-  <si>
-    <t>Subdirección de Calidad (UPP)</t>
-  </si>
-  <si>
-    <t>Subdirección de Planeación y Presupuesto (UPP)</t>
-  </si>
-  <si>
-    <t>Unidad de Promoción y Desarrollo Estudiantil (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Vinculación y Extensión (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento Jurídico (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Logística (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Análisis y Desarrollo de Sistemas de Información (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Idiomas y Lenguas (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Desarrollo Académico (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Servicios Bibliotecarios (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Actividades Deportivas y Recreativas (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Internacionalización (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Educación a Distancia (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Incubación de Empresas (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Contabilidad (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Recursos Humanos (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Atención y Promoción de la Salud (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Mantenimiento y Servicios Generales (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Administración del Polideportivo (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Adquisición de Bienes y Servicios (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Infraestructura (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Tecnologías de Información y Comunicaciones (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Servicios Escolares (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Evaluación y Estadísticas (UPP)</t>
+    <t>La plaza del Titular del Órgano Interno de Control, se pago hasta el 15 de enero, ya que dejó de pertenecer a la Estructura de la Universidad, y pasó a la Secretaría de Contraloría</t>
+  </si>
+  <si>
+    <t>Departamento de Programas Especiales (UPP)</t>
   </si>
 </sst>
 </file>
@@ -308,11 +309,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -341,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -364,12 +367,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -389,16 +401,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -673,7 +701,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -681,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +726,7 @@
     <col min="7" max="7" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" customWidth="1"/>
+    <col min="10" max="10" width="75.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -707,38 +735,40 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -805,18 +835,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -852,13 +882,13 @@
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>34</v>
@@ -867,1612 +897,1593 @@
         <v>35</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I8" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C9" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I9" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B10" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C10" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I10" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B11" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C11" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I11" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B12" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C12" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I12" s="3">
-        <v>44571</v>
-      </c>
-      <c r="J12" s="2"/>
+        <v>44659</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B13" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C13" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I13" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B14" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C14" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I14" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B15" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C15" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I15" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B16" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C16" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I16" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B17" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C17" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I17" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B18" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C18" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I18" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B19" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C19" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I19" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B20" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C20" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I20" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B21" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C21" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I21" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B22" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C22" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I22" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B23" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C23" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I23" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B24" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C24" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H24" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I24" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B25" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C25" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I25" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B26" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C26" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I26" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B27" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C27" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I27" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B28" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C28" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H28" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I28" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B29" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C29" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I29" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B30" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C30" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I30" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B31" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C31" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H31" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I31" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B32" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C32" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H32" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I32" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B33" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C33" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H33" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I33" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B34" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C34" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H34" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I34" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B35" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C35" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H35" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I35" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B36" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C36" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H36" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I36" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B37" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C37" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H37" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I37" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B38" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C38" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H38" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I38" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B39" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C39" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H39" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I39" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B40" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C40" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H40" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I40" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B41" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C41" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H41" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I41" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B42" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C42" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H42" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I42" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B43" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C43" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I43" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B44" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C44" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H44" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I44" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B45" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C45" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H45" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I45" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B46" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C46" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H46" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I46" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B47" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C47" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H47" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I47" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B48" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C48" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H48" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I48" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B49" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C49" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" s="3">
+        <v>44659</v>
+      </c>
+      <c r="I49" s="3">
+        <v>44659</v>
+      </c>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B50" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C50" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" s="3">
+        <v>44659</v>
+      </c>
+      <c r="I50" s="3">
+        <v>44659</v>
+      </c>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C51" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" s="3">
+        <v>44659</v>
+      </c>
+      <c r="I51" s="3">
+        <v>44659</v>
+      </c>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B52" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C52" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="3">
-        <v>44571</v>
-      </c>
-      <c r="I49" s="3">
-        <v>44571</v>
-      </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B50" s="3">
-        <v>44470</v>
-      </c>
-      <c r="C50" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H50" s="3">
-        <v>44571</v>
-      </c>
-      <c r="I50" s="3">
-        <v>44571</v>
-      </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B51" s="3">
-        <v>44470</v>
-      </c>
-      <c r="C51" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H51" s="3">
-        <v>44571</v>
-      </c>
-      <c r="I51" s="3">
-        <v>44571</v>
-      </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B52" s="3">
-        <v>44470</v>
-      </c>
-      <c r="C52" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="E52" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H52" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I52" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B53" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C53" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" s="3">
+        <v>44659</v>
+      </c>
+      <c r="I53" s="3">
+        <v>44659</v>
+      </c>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C54" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" s="3">
+        <v>44659</v>
+      </c>
+      <c r="I54" s="3">
+        <v>44659</v>
+      </c>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B55" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" s="3">
+        <v>44659</v>
+      </c>
+      <c r="I55" s="3">
+        <v>44659</v>
+      </c>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B56" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C56" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H53" s="3">
-        <v>44571</v>
-      </c>
-      <c r="I53" s="3">
-        <v>44571</v>
-      </c>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B54" s="3">
-        <v>44470</v>
-      </c>
-      <c r="C54" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D54" s="4" t="s">
+      <c r="E56" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H56" s="3">
+        <v>44659</v>
+      </c>
+      <c r="I56" s="3">
+        <v>44659</v>
+      </c>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B57" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C57" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" s="3">
-        <v>44571</v>
-      </c>
-      <c r="I54" s="3">
-        <v>44571</v>
-      </c>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B55" s="3">
-        <v>44470</v>
-      </c>
-      <c r="C55" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D55" s="4" t="s">
+      <c r="E57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" s="3">
+        <v>44659</v>
+      </c>
+      <c r="I57" s="3">
+        <v>44659</v>
+      </c>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B58" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C58" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" s="3">
-        <v>44571</v>
-      </c>
-      <c r="I55" s="3">
-        <v>44571</v>
-      </c>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B56" s="3">
-        <v>44470</v>
-      </c>
-      <c r="C56" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" s="3">
-        <v>44571</v>
-      </c>
-      <c r="I56" s="3">
-        <v>44571</v>
-      </c>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B57" s="3">
-        <v>44470</v>
-      </c>
-      <c r="C57" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" s="3">
-        <v>44571</v>
-      </c>
-      <c r="I57" s="3">
-        <v>44571</v>
-      </c>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B58" s="3">
-        <v>44470</v>
-      </c>
-      <c r="C58" s="3">
-        <v>44561</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="E58" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I58" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B59" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C59" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H59" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I59" s="3">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B60" s="3">
+        <v>44562</v>
+      </c>
+      <c r="C60" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" s="3">
+        <v>44659</v>
+      </c>
+      <c r="I60" s="3">
+        <v>44659</v>
+      </c>
+      <c r="J60" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G2:J2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F34" r:id="rId1"/>
-    <hyperlink ref="F32" r:id="rId2"/>
-    <hyperlink ref="F33" r:id="rId3"/>
-    <hyperlink ref="F31" r:id="rId4"/>
-    <hyperlink ref="F27" r:id="rId5"/>
-    <hyperlink ref="F26" r:id="rId6"/>
-    <hyperlink ref="F25" r:id="rId7"/>
-    <hyperlink ref="F24" r:id="rId8"/>
-    <hyperlink ref="F23" r:id="rId9"/>
-    <hyperlink ref="F22" r:id="rId10"/>
-    <hyperlink ref="F21" r:id="rId11"/>
-    <hyperlink ref="F20" r:id="rId12"/>
-    <hyperlink ref="F19" r:id="rId13"/>
-    <hyperlink ref="F16" r:id="rId14"/>
-    <hyperlink ref="F15" r:id="rId15"/>
-    <hyperlink ref="F17" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17"/>
-    <hyperlink ref="F13" r:id="rId18"/>
-    <hyperlink ref="F12" r:id="rId19"/>
-    <hyperlink ref="F14" r:id="rId20"/>
-    <hyperlink ref="F10" r:id="rId21"/>
-    <hyperlink ref="F8" r:id="rId22"/>
-    <hyperlink ref="F9" r:id="rId23"/>
-    <hyperlink ref="F11" r:id="rId24"/>
-    <hyperlink ref="F38" r:id="rId25"/>
-    <hyperlink ref="F39" r:id="rId26"/>
-    <hyperlink ref="F40" r:id="rId27"/>
-    <hyperlink ref="F41" r:id="rId28"/>
-    <hyperlink ref="F42" r:id="rId29"/>
-    <hyperlink ref="F43" r:id="rId30"/>
-    <hyperlink ref="F44" r:id="rId31"/>
-    <hyperlink ref="F45" r:id="rId32"/>
-    <hyperlink ref="F46" r:id="rId33"/>
-    <hyperlink ref="F47" r:id="rId34"/>
-    <hyperlink ref="F48" r:id="rId35"/>
-    <hyperlink ref="F49" r:id="rId36"/>
-    <hyperlink ref="F50" r:id="rId37"/>
-    <hyperlink ref="F51" r:id="rId38"/>
-    <hyperlink ref="F28" r:id="rId39"/>
-    <hyperlink ref="F29" r:id="rId40"/>
-    <hyperlink ref="F30" r:id="rId41"/>
-    <hyperlink ref="F35" r:id="rId42"/>
-    <hyperlink ref="F36" r:id="rId43"/>
-    <hyperlink ref="F37" r:id="rId44"/>
-    <hyperlink ref="F52" r:id="rId45"/>
-    <hyperlink ref="F53" r:id="rId46"/>
-    <hyperlink ref="F54" r:id="rId47"/>
-    <hyperlink ref="F55" r:id="rId48"/>
-    <hyperlink ref="F56" r:id="rId49"/>
-    <hyperlink ref="F57" r:id="rId50"/>
-    <hyperlink ref="F58" r:id="rId51"/>
-    <hyperlink ref="F59" r:id="rId52"/>
+    <hyperlink ref="F8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/a69_f03UPPachuca.xlsx
+++ b/xlsx/a69_f03UPPachuca.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dirección de Planeción\2022\SIPOT\UPP 2DO TRI 2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7350"/>
   </bookViews>
@@ -280,16 +285,16 @@
     <t>Departamento de Evaluación y Estadísticas (UPP)</t>
   </si>
   <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f03/Decreto-de-creaci%C3%B3n-VIGENTE-04_02_2008.pdf</t>
-  </si>
-  <si>
     <t>Órgano Interno de Control (UPP)</t>
   </si>
   <si>
-    <t>La plaza del Titular del Órgano Interno de Control, se pago hasta el 15 de enero, ya que dejó de pertenecer a la Estructura de la Universidad, y pasó a la Secretaría de Contraloría</t>
-  </si>
-  <si>
     <t>Departamento de Programas Especiales (UPP)</t>
+  </si>
+  <si>
+    <t>La plaza del Titular del Órgano Interno de Control, se pago hasta el 15 de enero, ya que dejó de pertenecer a la Estructura de la Universidad, y pasó a la Secretaría de Contraloría.</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/03/Decreto-de-creaci%C3%B3n-VIGENTE-04_02_2008.pdf</t>
   </si>
 </sst>
 </file>
@@ -381,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -401,11 +406,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,6 +441,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -701,7 +718,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -711,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,40 +752,40 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="16" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -835,18 +852,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -885,10 +902,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>34</v>
@@ -897,16 +914,16 @@
         <v>35</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I8" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -915,10 +932,10 @@
         <v>2022</v>
       </c>
       <c r="B9" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C9" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>37</v>
@@ -927,16 +944,16 @@
         <v>38</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I9" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J9" s="2"/>
     </row>
@@ -945,10 +962,10 @@
         <v>2022</v>
       </c>
       <c r="B10" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C10" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>39</v>
@@ -957,16 +974,16 @@
         <v>40</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I10" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J10" s="2"/>
     </row>
@@ -975,10 +992,10 @@
         <v>2022</v>
       </c>
       <c r="B11" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C11" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>41</v>
@@ -987,48 +1004,48 @@
         <v>40</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="3">
+        <v>44753</v>
+      </c>
+      <c r="I11" s="3">
+        <v>44753</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44652</v>
+      </c>
+      <c r="C12" s="10">
+        <v>44742</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="3">
-        <v>44659</v>
-      </c>
-      <c r="I11" s="3">
-        <v>44659</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44562</v>
-      </c>
-      <c r="C12" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="3">
-        <v>44659</v>
-      </c>
-      <c r="I12" s="3">
-        <v>44659</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="E12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="10">
+        <v>44753</v>
+      </c>
+      <c r="I12" s="10">
+        <v>44753</v>
+      </c>
+      <c r="J12" s="21" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1037,10 +1054,10 @@
         <v>2022</v>
       </c>
       <c r="B13" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C13" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>42</v>
@@ -1049,16 +1066,16 @@
         <v>40</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H13" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I13" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -1067,10 +1084,10 @@
         <v>2022</v>
       </c>
       <c r="B14" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C14" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>36</v>
@@ -1079,16 +1096,16 @@
         <v>40</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H14" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I14" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J14" s="2"/>
     </row>
@@ -1097,10 +1114,10 @@
         <v>2022</v>
       </c>
       <c r="B15" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C15" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>43</v>
@@ -1109,16 +1126,16 @@
         <v>40</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H15" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I15" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J15" s="2"/>
     </row>
@@ -1127,10 +1144,10 @@
         <v>2022</v>
       </c>
       <c r="B16" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C16" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>44</v>
@@ -1139,16 +1156,16 @@
         <v>40</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H16" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I16" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J16" s="2"/>
     </row>
@@ -1157,10 +1174,10 @@
         <v>2022</v>
       </c>
       <c r="B17" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C17" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>45</v>
@@ -1169,16 +1186,16 @@
         <v>40</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H17" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I17" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J17" s="2"/>
     </row>
@@ -1187,10 +1204,10 @@
         <v>2022</v>
       </c>
       <c r="B18" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C18" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>46</v>
@@ -1199,16 +1216,16 @@
         <v>40</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H18" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I18" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J18" s="2"/>
     </row>
@@ -1217,10 +1234,10 @@
         <v>2022</v>
       </c>
       <c r="B19" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C19" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>47</v>
@@ -1229,16 +1246,16 @@
         <v>40</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H19" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I19" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J19" s="2"/>
     </row>
@@ -1247,10 +1264,10 @@
         <v>2022</v>
       </c>
       <c r="B20" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C20" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>48</v>
@@ -1259,16 +1276,16 @@
         <v>40</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H20" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I20" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J20" s="2"/>
     </row>
@@ -1277,10 +1294,10 @@
         <v>2022</v>
       </c>
       <c r="B21" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C21" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>49</v>
@@ -1289,16 +1306,16 @@
         <v>40</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H21" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I21" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J21" s="2"/>
     </row>
@@ -1307,10 +1324,10 @@
         <v>2022</v>
       </c>
       <c r="B22" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C22" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>50</v>
@@ -1319,16 +1336,16 @@
         <v>40</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H22" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I22" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J22" s="2"/>
     </row>
@@ -1337,10 +1354,10 @@
         <v>2022</v>
       </c>
       <c r="B23" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C23" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>51</v>
@@ -1349,16 +1366,16 @@
         <v>40</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H23" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I23" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J23" s="2"/>
     </row>
@@ -1367,10 +1384,10 @@
         <v>2022</v>
       </c>
       <c r="B24" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C24" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>52</v>
@@ -1379,16 +1396,16 @@
         <v>40</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H24" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I24" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J24" s="2"/>
     </row>
@@ -1397,10 +1414,10 @@
         <v>2022</v>
       </c>
       <c r="B25" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C25" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>53</v>
@@ -1409,16 +1426,16 @@
         <v>40</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H25" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I25" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J25" s="2"/>
     </row>
@@ -1427,10 +1444,10 @@
         <v>2022</v>
       </c>
       <c r="B26" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C26" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>54</v>
@@ -1439,16 +1456,16 @@
         <v>40</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H26" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I26" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J26" s="2"/>
     </row>
@@ -1457,10 +1474,10 @@
         <v>2022</v>
       </c>
       <c r="B27" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C27" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>55</v>
@@ -1469,16 +1486,16 @@
         <v>40</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H27" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I27" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J27" s="2"/>
     </row>
@@ -1487,10 +1504,10 @@
         <v>2022</v>
       </c>
       <c r="B28" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C28" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>56</v>
@@ -1499,16 +1516,16 @@
         <v>40</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H28" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I28" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J28" s="2"/>
     </row>
@@ -1517,10 +1534,10 @@
         <v>2022</v>
       </c>
       <c r="B29" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C29" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>57</v>
@@ -1529,16 +1546,16 @@
         <v>40</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H29" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I29" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J29" s="2"/>
     </row>
@@ -1547,10 +1564,10 @@
         <v>2022</v>
       </c>
       <c r="B30" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C30" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>58</v>
@@ -1559,16 +1576,16 @@
         <v>40</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H30" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I30" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J30" s="2"/>
     </row>
@@ -1577,10 +1594,10 @@
         <v>2022</v>
       </c>
       <c r="B31" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C31" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>59</v>
@@ -1589,16 +1606,16 @@
         <v>40</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H31" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I31" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J31" s="2"/>
     </row>
@@ -1607,10 +1624,10 @@
         <v>2022</v>
       </c>
       <c r="B32" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C32" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>60</v>
@@ -1619,16 +1636,16 @@
         <v>40</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H32" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I32" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J32" s="2"/>
     </row>
@@ -1637,10 +1654,10 @@
         <v>2022</v>
       </c>
       <c r="B33" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C33" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>61</v>
@@ -1649,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H33" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I33" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J33" s="2"/>
     </row>
@@ -1667,10 +1684,10 @@
         <v>2022</v>
       </c>
       <c r="B34" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C34" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>62</v>
@@ -1679,16 +1696,16 @@
         <v>40</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H34" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I34" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J34" s="2"/>
     </row>
@@ -1697,10 +1714,10 @@
         <v>2022</v>
       </c>
       <c r="B35" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C35" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>63</v>
@@ -1709,16 +1726,16 @@
         <v>40</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H35" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I35" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J35" s="2"/>
     </row>
@@ -1727,10 +1744,10 @@
         <v>2022</v>
       </c>
       <c r="B36" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C36" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>64</v>
@@ -1739,16 +1756,16 @@
         <v>40</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H36" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I36" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J36" s="2"/>
     </row>
@@ -1757,10 +1774,10 @@
         <v>2022</v>
       </c>
       <c r="B37" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C37" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>65</v>
@@ -1769,16 +1786,16 @@
         <v>40</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H37" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I37" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J37" s="2"/>
     </row>
@@ -1787,10 +1804,10 @@
         <v>2022</v>
       </c>
       <c r="B38" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C38" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>66</v>
@@ -1799,46 +1816,46 @@
         <v>40</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H38" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I38" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2022</v>
       </c>
       <c r="B39" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C39" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H39" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I39" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J39" s="2"/>
     </row>
@@ -1847,10 +1864,10 @@
         <v>2022</v>
       </c>
       <c r="B40" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C40" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>67</v>
@@ -1859,16 +1876,16 @@
         <v>40</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H40" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I40" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J40" s="2"/>
     </row>
@@ -1877,10 +1894,10 @@
         <v>2022</v>
       </c>
       <c r="B41" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C41" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>68</v>
@@ -1889,16 +1906,16 @@
         <v>40</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H41" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I41" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J41" s="2"/>
     </row>
@@ -1907,10 +1924,10 @@
         <v>2022</v>
       </c>
       <c r="B42" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C42" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>69</v>
@@ -1919,16 +1936,16 @@
         <v>40</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H42" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I42" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J42" s="2"/>
     </row>
@@ -1937,10 +1954,10 @@
         <v>2022</v>
       </c>
       <c r="B43" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C43" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>70</v>
@@ -1949,16 +1966,16 @@
         <v>40</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H43" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I43" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J43" s="2"/>
     </row>
@@ -1967,10 +1984,10 @@
         <v>2022</v>
       </c>
       <c r="B44" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C44" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>71</v>
@@ -1979,16 +1996,16 @@
         <v>40</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H44" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I44" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J44" s="2"/>
     </row>
@@ -1997,10 +2014,10 @@
         <v>2022</v>
       </c>
       <c r="B45" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C45" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>72</v>
@@ -2009,16 +2026,16 @@
         <v>40</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H45" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I45" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J45" s="2"/>
     </row>
@@ -2027,10 +2044,10 @@
         <v>2022</v>
       </c>
       <c r="B46" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C46" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>73</v>
@@ -2039,16 +2056,16 @@
         <v>40</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H46" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I46" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J46" s="2"/>
     </row>
@@ -2057,10 +2074,10 @@
         <v>2022</v>
       </c>
       <c r="B47" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C47" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>74</v>
@@ -2069,16 +2086,16 @@
         <v>40</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H47" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I47" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J47" s="2"/>
     </row>
@@ -2087,10 +2104,10 @@
         <v>2022</v>
       </c>
       <c r="B48" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C48" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>75</v>
@@ -2099,16 +2116,16 @@
         <v>40</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H48" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I48" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J48" s="2"/>
     </row>
@@ -2117,10 +2134,10 @@
         <v>2022</v>
       </c>
       <c r="B49" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C49" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>76</v>
@@ -2129,16 +2146,16 @@
         <v>40</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H49" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I49" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J49" s="2"/>
     </row>
@@ -2147,10 +2164,10 @@
         <v>2022</v>
       </c>
       <c r="B50" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C50" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>77</v>
@@ -2159,16 +2176,16 @@
         <v>40</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H50" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I50" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J50" s="2"/>
     </row>
@@ -2177,10 +2194,10 @@
         <v>2022</v>
       </c>
       <c r="B51" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C51" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>78</v>
@@ -2189,16 +2206,16 @@
         <v>40</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H51" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I51" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J51" s="2"/>
     </row>
@@ -2207,10 +2224,10 @@
         <v>2022</v>
       </c>
       <c r="B52" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C52" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>79</v>
@@ -2219,16 +2236,16 @@
         <v>40</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H52" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I52" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J52" s="2"/>
     </row>
@@ -2237,10 +2254,10 @@
         <v>2022</v>
       </c>
       <c r="B53" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C53" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>80</v>
@@ -2249,16 +2266,16 @@
         <v>40</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H53" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I53" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J53" s="2"/>
     </row>
@@ -2267,10 +2284,10 @@
         <v>2022</v>
       </c>
       <c r="B54" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C54" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>81</v>
@@ -2279,16 +2296,16 @@
         <v>40</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H54" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I54" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J54" s="2"/>
     </row>
@@ -2297,10 +2314,10 @@
         <v>2022</v>
       </c>
       <c r="B55" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C55" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>82</v>
@@ -2309,16 +2326,16 @@
         <v>40</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H55" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I55" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J55" s="2"/>
     </row>
@@ -2327,10 +2344,10 @@
         <v>2022</v>
       </c>
       <c r="B56" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C56" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>83</v>
@@ -2339,16 +2356,16 @@
         <v>40</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H56" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I56" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J56" s="2"/>
     </row>
@@ -2357,10 +2374,10 @@
         <v>2022</v>
       </c>
       <c r="B57" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C57" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>84</v>
@@ -2369,16 +2386,16 @@
         <v>40</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H57" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I57" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J57" s="2"/>
     </row>
@@ -2387,10 +2404,10 @@
         <v>2022</v>
       </c>
       <c r="B58" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C58" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>85</v>
@@ -2399,16 +2416,16 @@
         <v>40</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H58" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I58" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J58" s="2"/>
     </row>
@@ -2417,10 +2434,10 @@
         <v>2022</v>
       </c>
       <c r="B59" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C59" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>86</v>
@@ -2429,16 +2446,16 @@
         <v>40</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H59" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I59" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J59" s="2"/>
     </row>
@@ -2447,10 +2464,10 @@
         <v>2022</v>
       </c>
       <c r="B60" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C60" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>87</v>
@@ -2459,16 +2476,16 @@
         <v>40</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H60" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I60" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="J60" s="2"/>
     </row>
@@ -2484,7 +2501,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F8" r:id="rId1"/>
+    <hyperlink ref="F9:F60" r:id="rId2" display="http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/03/Decreto-de-creaci%C3%B3n-VIGENTE-04_02_2008.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f03UPPachuca.xlsx
+++ b/xlsx/a69_f03UPPachuca.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dirección de Planeción\2022\SIPOT\UPP 2DO TRI 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12F8EA4-0FFF-4123-8AB5-FD9416BD15D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7350"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -129,6 +130,9 @@
     <t>Artículo 4, Fracción  I, II,III, IV, V, VI, VII, VIII, IX, X, XI, XII, XIII, XIV, XV, XVI, XVII, XVIII, Artículo 26, Fracción I, II,III, IV, V, VI, VII, VIII, IX, X, XI, XII, XIII, XIV, XV, XVI, XVII, XVIII, XIX, XX, XI, XII, XIII, XIV, XV del Decreto de creación de la Universidad Politécnica de Pachuca</t>
   </si>
   <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f03/Decreto-de-creaci%C3%B3n-VIGENTE-04_02_2008.pdf</t>
+  </si>
+  <si>
     <t>Abogado General (UPP)</t>
   </si>
   <si>
@@ -147,6 +151,9 @@
     <t>Dirección de la División de Estudios Profesionales (UPP)</t>
   </si>
   <si>
+    <t>Órgano Interno de Control (UPP)</t>
+  </si>
+  <si>
     <t>Dirección de Vinculación y Extensión (UPP)</t>
   </si>
   <si>
@@ -222,6 +229,9 @@
     <t>Unidad de Promoción y Desarrollo Estudiantil (UPP)</t>
   </si>
   <si>
+    <t>Departamento de Programas Especiales (UPP)</t>
+  </si>
+  <si>
     <t>Departamento de Vinculación y Extensión (UPP)</t>
   </si>
   <si>
@@ -285,23 +295,14 @@
     <t>Departamento de Evaluación y Estadísticas (UPP)</t>
   </si>
   <si>
-    <t>Órgano Interno de Control (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Programas Especiales (UPP)</t>
-  </si>
-  <si>
-    <t>La plaza del Titular del Órgano Interno de Control, se pago hasta el 15 de enero, ya que dejó de pertenecer a la Estructura de la Universidad, y pasó a la Secretaría de Contraloría.</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/03/Decreto-de-creaci%C3%B3n-VIGENTE-04_02_2008.pdf</t>
+    <t xml:space="preserve">La plaza del Titular del Órgano Interno de Control, dejó de pertenecer a la Estructura de la Universidad, y pasó a la Secretaría de Contraloría a partir del 16 de enero 2022. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -330,6 +331,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -349,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -372,21 +380,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -403,47 +402,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -725,11 +699,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="G55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +717,7 @@
     <col min="7" max="7" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="75.42578125" customWidth="1"/>
+    <col min="10" max="10" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -752,40 +726,38 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="19" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-    </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -852,18 +824,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -902,10 +874,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>34</v>
@@ -914,16 +886,16 @@
         <v>35</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H8" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I8" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -932,28 +904,28 @@
         <v>2022</v>
       </c>
       <c r="B9" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C9" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="E9" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="F9" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H9" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I9" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J9" s="2"/>
     </row>
@@ -962,28 +934,28 @@
         <v>2022</v>
       </c>
       <c r="B10" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C10" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="E10" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F10" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H10" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I10" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J10" s="2"/>
     </row>
@@ -992,61 +964,61 @@
         <v>2022</v>
       </c>
       <c r="B11" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C11" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="3">
+        <v>44844</v>
+      </c>
+      <c r="I11" s="3">
+        <v>44844</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44834</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="3">
+        <v>44844</v>
+      </c>
+      <c r="I12" s="3">
+        <v>44844</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="3">
-        <v>44753</v>
-      </c>
-      <c r="I11" s="3">
-        <v>44753</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>2022</v>
-      </c>
-      <c r="B12" s="10">
-        <v>44652</v>
-      </c>
-      <c r="C12" s="10">
-        <v>44742</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="10">
-        <v>44753</v>
-      </c>
-      <c r="I12" s="10">
-        <v>44753</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1054,28 +1026,28 @@
         <v>2022</v>
       </c>
       <c r="B13" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C13" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H13" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I13" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -1084,28 +1056,28 @@
         <v>2022</v>
       </c>
       <c r="B14" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C14" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H14" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I14" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J14" s="2"/>
     </row>
@@ -1114,28 +1086,28 @@
         <v>2022</v>
       </c>
       <c r="B15" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C15" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H15" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I15" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J15" s="2"/>
     </row>
@@ -1144,28 +1116,28 @@
         <v>2022</v>
       </c>
       <c r="B16" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C16" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H16" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I16" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J16" s="2"/>
     </row>
@@ -1174,28 +1146,28 @@
         <v>2022</v>
       </c>
       <c r="B17" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C17" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H17" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I17" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J17" s="2"/>
     </row>
@@ -1204,28 +1176,28 @@
         <v>2022</v>
       </c>
       <c r="B18" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C18" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H18" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I18" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J18" s="2"/>
     </row>
@@ -1234,28 +1206,28 @@
         <v>2022</v>
       </c>
       <c r="B19" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C19" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H19" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I19" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J19" s="2"/>
     </row>
@@ -1264,28 +1236,28 @@
         <v>2022</v>
       </c>
       <c r="B20" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C20" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H20" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I20" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J20" s="2"/>
     </row>
@@ -1294,28 +1266,28 @@
         <v>2022</v>
       </c>
       <c r="B21" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C21" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H21" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I21" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J21" s="2"/>
     </row>
@@ -1324,28 +1296,28 @@
         <v>2022</v>
       </c>
       <c r="B22" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C22" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H22" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I22" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J22" s="2"/>
     </row>
@@ -1354,28 +1326,28 @@
         <v>2022</v>
       </c>
       <c r="B23" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C23" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H23" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I23" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J23" s="2"/>
     </row>
@@ -1384,28 +1356,28 @@
         <v>2022</v>
       </c>
       <c r="B24" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C24" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H24" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I24" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J24" s="2"/>
     </row>
@@ -1414,28 +1386,28 @@
         <v>2022</v>
       </c>
       <c r="B25" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C25" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>40</v>
+        <v>55</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H25" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I25" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J25" s="2"/>
     </row>
@@ -1444,28 +1416,28 @@
         <v>2022</v>
       </c>
       <c r="B26" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C26" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>40</v>
+        <v>56</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H26" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I26" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J26" s="2"/>
     </row>
@@ -1474,28 +1446,28 @@
         <v>2022</v>
       </c>
       <c r="B27" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C27" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>40</v>
+        <v>57</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H27" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I27" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J27" s="2"/>
     </row>
@@ -1504,28 +1476,28 @@
         <v>2022</v>
       </c>
       <c r="B28" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C28" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>40</v>
+        <v>58</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H28" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I28" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J28" s="2"/>
     </row>
@@ -1534,28 +1506,28 @@
         <v>2022</v>
       </c>
       <c r="B29" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C29" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>40</v>
+        <v>59</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H29" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I29" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J29" s="2"/>
     </row>
@@ -1564,28 +1536,28 @@
         <v>2022</v>
       </c>
       <c r="B30" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C30" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H30" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I30" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J30" s="2"/>
     </row>
@@ -1594,28 +1566,28 @@
         <v>2022</v>
       </c>
       <c r="B31" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C31" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>40</v>
+        <v>61</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H31" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I31" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J31" s="2"/>
     </row>
@@ -1624,28 +1596,28 @@
         <v>2022</v>
       </c>
       <c r="B32" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C32" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>40</v>
+        <v>62</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H32" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I32" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J32" s="2"/>
     </row>
@@ -1654,28 +1626,28 @@
         <v>2022</v>
       </c>
       <c r="B33" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C33" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H33" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I33" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J33" s="2"/>
     </row>
@@ -1684,28 +1656,28 @@
         <v>2022</v>
       </c>
       <c r="B34" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C34" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>40</v>
+        <v>64</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H34" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I34" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J34" s="2"/>
     </row>
@@ -1714,28 +1686,28 @@
         <v>2022</v>
       </c>
       <c r="B35" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C35" s="3">
-        <v>44742</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>40</v>
+        <v>44834</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H35" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I35" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J35" s="2"/>
     </row>
@@ -1744,28 +1716,28 @@
         <v>2022</v>
       </c>
       <c r="B36" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C36" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H36" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I36" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J36" s="2"/>
     </row>
@@ -1774,28 +1746,28 @@
         <v>2022</v>
       </c>
       <c r="B37" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C37" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H37" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I37" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J37" s="2"/>
     </row>
@@ -1804,58 +1776,58 @@
         <v>2022</v>
       </c>
       <c r="B38" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C38" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>40</v>
+        <v>68</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H38" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I38" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2022</v>
       </c>
       <c r="B39" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C39" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>40</v>
+        <v>69</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H39" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I39" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J39" s="2"/>
     </row>
@@ -1864,28 +1836,28 @@
         <v>2022</v>
       </c>
       <c r="B40" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C40" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>40</v>
+        <v>70</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H40" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I40" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J40" s="2"/>
     </row>
@@ -1894,28 +1866,28 @@
         <v>2022</v>
       </c>
       <c r="B41" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C41" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>40</v>
+        <v>71</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H41" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I41" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J41" s="2"/>
     </row>
@@ -1924,28 +1896,28 @@
         <v>2022</v>
       </c>
       <c r="B42" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C42" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>40</v>
+        <v>72</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H42" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I42" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J42" s="2"/>
     </row>
@@ -1954,28 +1926,28 @@
         <v>2022</v>
       </c>
       <c r="B43" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C43" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>40</v>
+        <v>73</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H43" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I43" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J43" s="2"/>
     </row>
@@ -1984,28 +1956,28 @@
         <v>2022</v>
       </c>
       <c r="B44" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C44" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>40</v>
+        <v>74</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H44" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I44" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J44" s="2"/>
     </row>
@@ -2014,28 +1986,28 @@
         <v>2022</v>
       </c>
       <c r="B45" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C45" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>40</v>
+        <v>75</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H45" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I45" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J45" s="2"/>
     </row>
@@ -2044,28 +2016,28 @@
         <v>2022</v>
       </c>
       <c r="B46" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C46" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>40</v>
+        <v>76</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H46" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I46" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J46" s="2"/>
     </row>
@@ -2074,28 +2046,28 @@
         <v>2022</v>
       </c>
       <c r="B47" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C47" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>40</v>
+        <v>77</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H47" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I47" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J47" s="2"/>
     </row>
@@ -2104,28 +2076,28 @@
         <v>2022</v>
       </c>
       <c r="B48" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C48" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>40</v>
+        <v>78</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H48" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I48" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J48" s="2"/>
     </row>
@@ -2134,28 +2106,28 @@
         <v>2022</v>
       </c>
       <c r="B49" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C49" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>40</v>
+        <v>79</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H49" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I49" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J49" s="2"/>
     </row>
@@ -2164,28 +2136,28 @@
         <v>2022</v>
       </c>
       <c r="B50" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C50" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>40</v>
+        <v>80</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H50" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I50" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J50" s="2"/>
     </row>
@@ -2194,28 +2166,28 @@
         <v>2022</v>
       </c>
       <c r="B51" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C51" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>40</v>
+        <v>81</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H51" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I51" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J51" s="2"/>
     </row>
@@ -2224,28 +2196,28 @@
         <v>2022</v>
       </c>
       <c r="B52" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C52" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>40</v>
+        <v>82</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H52" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I52" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J52" s="2"/>
     </row>
@@ -2254,28 +2226,28 @@
         <v>2022</v>
       </c>
       <c r="B53" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C53" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>40</v>
+        <v>83</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H53" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I53" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J53" s="2"/>
     </row>
@@ -2284,28 +2256,28 @@
         <v>2022</v>
       </c>
       <c r="B54" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C54" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>40</v>
+        <v>84</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H54" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I54" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J54" s="2"/>
     </row>
@@ -2314,28 +2286,28 @@
         <v>2022</v>
       </c>
       <c r="B55" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C55" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>40</v>
+        <v>85</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H55" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I55" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J55" s="2"/>
     </row>
@@ -2344,28 +2316,28 @@
         <v>2022</v>
       </c>
       <c r="B56" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C56" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>40</v>
+        <v>86</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H56" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I56" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J56" s="2"/>
     </row>
@@ -2374,28 +2346,28 @@
         <v>2022</v>
       </c>
       <c r="B57" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C57" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>40</v>
+        <v>87</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H57" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I57" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J57" s="2"/>
     </row>
@@ -2404,28 +2376,28 @@
         <v>2022</v>
       </c>
       <c r="B58" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C58" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>40</v>
+        <v>88</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H58" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I58" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J58" s="2"/>
     </row>
@@ -2434,28 +2406,28 @@
         <v>2022</v>
       </c>
       <c r="B59" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C59" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>40</v>
+        <v>89</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H59" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I59" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J59" s="2"/>
     </row>
@@ -2464,28 +2436,28 @@
         <v>2022</v>
       </c>
       <c r="B60" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C60" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>40</v>
+        <v>90</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="H60" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I60" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="J60" s="2"/>
     </row>
@@ -2494,16 +2466,15 @@
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1"/>
-    <hyperlink ref="F9:F60" r:id="rId2" display="http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/03/Decreto-de-creaci%C3%B3n-VIGENTE-04_02_2008.pdf"/>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f03UPPachuca.xlsx
+++ b/xlsx/a69_f03UPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\2DO TRIMESTRE 2023\Pagina Oficial 2do Trimestre 2023\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41E33ACF-D472-421A-B27C-53E0642673BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="555" windowWidth="13815" windowHeight="9405"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -292,7 +298,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -306,13 +312,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -341,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -364,21 +368,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -389,7 +384,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -401,7 +395,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -417,6 +411,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -465,7 +462,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,9 +495,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,6 +547,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -708,7 +739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
@@ -735,38 +766,38 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -833,18 +864,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -883,1590 +914,1590 @@
         <v>2023</v>
       </c>
       <c r="B8" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C8" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D8" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I8" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J8" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2023</v>
       </c>
       <c r="B9" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C9" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D9" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I9" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J9" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2023</v>
       </c>
       <c r="B10" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C10" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D10" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="E10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H10" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I10" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J10" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2023</v>
       </c>
       <c r="B11" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C11" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D11" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I11" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J11" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2023</v>
       </c>
       <c r="B12" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C12" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D12" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="E12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H12" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I12" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J12" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2023</v>
       </c>
       <c r="B13" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C13" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D13" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="E13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I13" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J13" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2023</v>
       </c>
       <c r="B14" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C14" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D14" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H14" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I14" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J14" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2023</v>
       </c>
       <c r="B15" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C15" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D15" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="E15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H15" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I15" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J15" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2023</v>
       </c>
       <c r="B16" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C16" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D16" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="E16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H16" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I16" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J16" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2023</v>
       </c>
       <c r="B17" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C17" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D17" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="E17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H17" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I17" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J17" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2023</v>
       </c>
       <c r="B18" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C18" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D18" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="E18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H18" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I18" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J18" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2023</v>
       </c>
       <c r="B19" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C19" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D19" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="E19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H19" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I19" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J19" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2023</v>
       </c>
       <c r="B20" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C20" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D20" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="E20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H20" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I20" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J20" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2023</v>
       </c>
       <c r="B21" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C21" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D21" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="E21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H21" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I21" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J21" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2023</v>
       </c>
       <c r="B22" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C22" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D22" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="E22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H22" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I22" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J22" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2023</v>
       </c>
       <c r="B23" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C23" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D23" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="E23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H23" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I23" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J23" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2023</v>
       </c>
       <c r="B24" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C24" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D24" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="E24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I24" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J24" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2023</v>
       </c>
       <c r="B25" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C25" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D25" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="E25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H25" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I25" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J25" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2023</v>
       </c>
       <c r="B26" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C26" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D26" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="E26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H26" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I26" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J26" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2023</v>
       </c>
       <c r="B27" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C27" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D27" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="E27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H27" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I27" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J27" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2023</v>
       </c>
       <c r="B28" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C28" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D28" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="E28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H28" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I28" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J28" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2023</v>
       </c>
       <c r="B29" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C29" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D29" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="5" t="s">
+      <c r="E29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H29" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I29" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J29" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2023</v>
       </c>
       <c r="B30" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C30" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D30" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="5" t="s">
+      <c r="E30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H30" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I30" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J30" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2023</v>
       </c>
       <c r="B31" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C31" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D31" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="5" t="s">
+      <c r="E31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H31" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I31" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J31" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2023</v>
       </c>
       <c r="B32" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C32" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D32" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="5" t="s">
+      <c r="E32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H32" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I32" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J32" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2023</v>
       </c>
       <c r="B33" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C33" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D33" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="E33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H33" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I33" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J33" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2023</v>
       </c>
       <c r="B34" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C34" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D34" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="E34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H34" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I34" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J34" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2023</v>
       </c>
       <c r="B35" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C35" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D35" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" s="5" t="s">
+      <c r="E35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H35" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I35" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J35" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2023</v>
       </c>
       <c r="B36" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C36" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D36" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" s="5" t="s">
+      <c r="E36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H36" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I36" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J36" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2023</v>
       </c>
       <c r="B37" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C37" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D37" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" s="5" t="s">
+      <c r="E37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H37" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I37" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J37" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2023</v>
       </c>
       <c r="B38" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C38" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D38" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" s="5" t="s">
+      <c r="E38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H38" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I38" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J38" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2023</v>
       </c>
       <c r="B39" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C39" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D39" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="5" t="s">
+      <c r="E39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H39" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I39" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J39" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2023</v>
       </c>
       <c r="B40" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C40" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D40" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G40" s="5" t="s">
+      <c r="E40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H40" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I40" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J40" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2023</v>
       </c>
       <c r="B41" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C41" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D41" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" s="5" t="s">
+      <c r="E41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H41" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I41" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>45117</v>
+      </c>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2023</v>
       </c>
       <c r="B42" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C42" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D42" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="5" t="s">
+      <c r="E42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H42" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I42" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J42" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2023</v>
       </c>
       <c r="B43" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C43" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D43" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="5" t="s">
+      <c r="E43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H43" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I43" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J43" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2023</v>
       </c>
       <c r="B44" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C44" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D44" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" s="5" t="s">
+      <c r="E44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H44" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I44" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J44" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2023</v>
       </c>
       <c r="B45" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C45" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D45" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" s="5" t="s">
+      <c r="E45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H45" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I45" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J45" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>2023</v>
       </c>
       <c r="B46" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C46" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D46" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" s="5" t="s">
+      <c r="E46" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H46" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I46" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J46" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2023</v>
       </c>
       <c r="B47" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C47" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D47" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G47" s="5" t="s">
+      <c r="E47" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H47" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I47" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J47" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>2023</v>
       </c>
       <c r="B48" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C48" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H48" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I48" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J48" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2023</v>
       </c>
       <c r="B49" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C49" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D49" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" s="5" t="s">
+      <c r="E49" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H49" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I49" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J49" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>2023</v>
       </c>
       <c r="B50" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C50" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D50" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G50" s="5" t="s">
+      <c r="E50" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H50" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I50" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J50" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2023</v>
       </c>
       <c r="B51" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C51" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D51" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G51" s="5" t="s">
+      <c r="E51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H51" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I51" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J51" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>2023</v>
       </c>
       <c r="B52" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C52" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D52" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G52" s="5" t="s">
+      <c r="E52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H52" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I52" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J52" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2023</v>
       </c>
       <c r="B53" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C53" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D53" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G53" s="5" t="s">
+      <c r="E53" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H53" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I53" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J53" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2023</v>
       </c>
       <c r="B54" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C54" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D54" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G54" s="5" t="s">
+      <c r="E54" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H54" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I54" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J54" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>2023</v>
       </c>
       <c r="B55" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C55" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D55" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G55" s="5" t="s">
+      <c r="E55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H55" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I55" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J55" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>2023</v>
       </c>
       <c r="B56" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C56" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D56" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G56" s="5" t="s">
+      <c r="E56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H56" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I56" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J56" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2023</v>
       </c>
       <c r="B57" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C57" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D57" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G57" s="5" t="s">
+      <c r="E57" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H57" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I57" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J57" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2023</v>
       </c>
       <c r="B58" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C58" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D58" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G58" s="5" t="s">
+      <c r="E58" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H58" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I58" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J58" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>2023</v>
       </c>
       <c r="B59" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C59" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D59" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G59" s="5" t="s">
+      <c r="E59" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H59" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I59" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J59" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>2023</v>
       </c>
       <c r="B60" s="3">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C60" s="3">
-        <v>45016</v>
-      </c>
-      <c r="D60" s="5" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G60" s="5" t="s">
+      <c r="E60" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H60" s="3">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="I60" s="3">
-        <v>45026</v>
-      </c>
-      <c r="J60" s="4"/>
+        <v>45117</v>
+      </c>
+      <c r="J60" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2479,8 +2510,57 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1"/>
-    <hyperlink ref="F11" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{5D2A8D07-9E5B-4E04-B32C-4A8DC18531F5}"/>
+    <hyperlink ref="F11" r:id="rId2" xr:uid="{5202D0D5-6F94-4F34-9D2A-0A9BBB7A524F}"/>
+    <hyperlink ref="F12" r:id="rId3" xr:uid="{B9500F17-63FD-42E3-93BC-F0283146F2CB}"/>
+    <hyperlink ref="F13" r:id="rId4" xr:uid="{17EFA7BE-B813-4095-85EE-4051D2509962}"/>
+    <hyperlink ref="F14" r:id="rId5" xr:uid="{425869AD-D15E-4D40-9240-D09EC03AEEE1}"/>
+    <hyperlink ref="F15" r:id="rId6" xr:uid="{F6B9CD4F-7622-4AEB-B1F0-CCE610E496AB}"/>
+    <hyperlink ref="F16" r:id="rId7" xr:uid="{8CC1EB1E-63ED-4E3D-9D7D-7B72BD929C1E}"/>
+    <hyperlink ref="F17" r:id="rId8" xr:uid="{10DF483A-EB1E-4A03-A279-3B2189B921FC}"/>
+    <hyperlink ref="F18" r:id="rId9" xr:uid="{8284EC8B-0A7D-4F2C-8335-700B70519061}"/>
+    <hyperlink ref="F19" r:id="rId10" xr:uid="{0D901E6C-DA18-44F5-BA87-9E509DFF3F48}"/>
+    <hyperlink ref="F20" r:id="rId11" xr:uid="{F473194C-A333-4ADF-A351-D4092AFFB739}"/>
+    <hyperlink ref="F21" r:id="rId12" xr:uid="{E16F8087-911D-495B-B13F-6E275883D7AA}"/>
+    <hyperlink ref="F22" r:id="rId13" xr:uid="{7A3A679B-9B6E-4BC7-BF62-A7A053F48A79}"/>
+    <hyperlink ref="F23" r:id="rId14" xr:uid="{89B07EC8-6252-4674-9DAA-43E73D697414}"/>
+    <hyperlink ref="F24" r:id="rId15" xr:uid="{D7118AB1-AF02-40C7-BF12-638CC9C626ED}"/>
+    <hyperlink ref="F25" r:id="rId16" xr:uid="{7C9061E9-8B50-4214-B383-8C190CED368C}"/>
+    <hyperlink ref="F26" r:id="rId17" xr:uid="{30A704CF-9756-4EF3-9AC7-4902652212A7}"/>
+    <hyperlink ref="F27" r:id="rId18" xr:uid="{38ADEA0D-E1FA-4F8E-B4BF-ABA1190594DC}"/>
+    <hyperlink ref="F28" r:id="rId19" xr:uid="{8621930B-8044-4DB0-8F90-F614D0BEB524}"/>
+    <hyperlink ref="F29" r:id="rId20" xr:uid="{5DBBA906-4C36-4590-91B0-5B7223891F0E}"/>
+    <hyperlink ref="F30" r:id="rId21" xr:uid="{618C9531-EE10-4EED-95D3-F8DEC6A737F5}"/>
+    <hyperlink ref="F31" r:id="rId22" xr:uid="{14FDFBA4-8C65-4B50-9A75-AA0EF1AC0D72}"/>
+    <hyperlink ref="F32" r:id="rId23" xr:uid="{4459ECFF-14D8-408E-BE2B-7C1A81328E5C}"/>
+    <hyperlink ref="F33" r:id="rId24" xr:uid="{3C08201D-C04A-4A49-8D7E-511D148FA4E3}"/>
+    <hyperlink ref="F34" r:id="rId25" xr:uid="{EEADB6EA-3C74-4A87-AF34-D951F3241222}"/>
+    <hyperlink ref="F35" r:id="rId26" xr:uid="{202F2AC5-AF38-4D33-A60F-4086E2081251}"/>
+    <hyperlink ref="F36" r:id="rId27" xr:uid="{D8796798-4593-421C-BC50-97F3E7D748FE}"/>
+    <hyperlink ref="F37" r:id="rId28" xr:uid="{780C9B8E-1734-4FC7-93C7-AF24C3207A0C}"/>
+    <hyperlink ref="F38" r:id="rId29" xr:uid="{E2900659-868F-4E18-B3DD-A2093A94ACFE}"/>
+    <hyperlink ref="F39" r:id="rId30" xr:uid="{6104C00C-749C-416D-AADA-50A0A687B466}"/>
+    <hyperlink ref="F40" r:id="rId31" xr:uid="{C63C5DEF-187A-472C-A0B0-0AB6ED794F99}"/>
+    <hyperlink ref="F41" r:id="rId32" xr:uid="{2C2D1F6C-935A-4E6C-9626-05819452950C}"/>
+    <hyperlink ref="F42" r:id="rId33" xr:uid="{D68653AD-92D9-44E5-9FC4-C2204A54D0E1}"/>
+    <hyperlink ref="F43" r:id="rId34" xr:uid="{A0BB1851-A0C2-41B2-8810-FCCA7FE2B996}"/>
+    <hyperlink ref="F44" r:id="rId35" xr:uid="{BCBD3964-D028-41DA-9CC7-BCA05A1EE9AF}"/>
+    <hyperlink ref="F45" r:id="rId36" xr:uid="{26EB803E-23A5-42D1-BD8B-10875390B99B}"/>
+    <hyperlink ref="F46" r:id="rId37" xr:uid="{1ABFD72A-1399-442E-BBD9-58BEB0077424}"/>
+    <hyperlink ref="F47" r:id="rId38" xr:uid="{F3E5163C-1CE1-4E9D-97DD-F97AD1B58079}"/>
+    <hyperlink ref="F48" r:id="rId39" xr:uid="{376F4D48-66BA-47FE-9F34-99E73DA8FDE4}"/>
+    <hyperlink ref="F49" r:id="rId40" xr:uid="{04060C8B-E0A5-4C0B-BD8B-D2F36AEA6970}"/>
+    <hyperlink ref="F50" r:id="rId41" xr:uid="{F66FB12B-A178-4A8C-91F8-92DDBA4FBBA7}"/>
+    <hyperlink ref="F51" r:id="rId42" xr:uid="{8E018798-9707-4BD6-8396-3119A1B15340}"/>
+    <hyperlink ref="F52" r:id="rId43" xr:uid="{8D07B5FD-7859-4AC6-900F-BAF0DA8EB939}"/>
+    <hyperlink ref="F53" r:id="rId44" xr:uid="{44E2E38E-86C9-4A4D-AAE0-FB8073A46DFE}"/>
+    <hyperlink ref="F54" r:id="rId45" xr:uid="{CB7ECC4A-2055-45A5-8DC7-11A619D8960B}"/>
+    <hyperlink ref="F55" r:id="rId46" xr:uid="{DAF7AE8F-98FE-4A8D-863A-FDE00E542FB5}"/>
+    <hyperlink ref="F56" r:id="rId47" xr:uid="{DB210875-B7A4-439E-95F9-25A2CA0D63AE}"/>
+    <hyperlink ref="F57" r:id="rId48" xr:uid="{30D46606-7531-462E-9B7F-41423B03862D}"/>
+    <hyperlink ref="F58" r:id="rId49" xr:uid="{1E7FB591-6AB2-4BA4-A8A1-7AB20A3A81D7}"/>
+    <hyperlink ref="F59" r:id="rId50" xr:uid="{93ECE7B7-65BE-49B4-9D9F-C96773AAB8FA}"/>
+    <hyperlink ref="F60" r:id="rId51" xr:uid="{6FEEF4CD-F139-4540-870D-D5FED286D604}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
